--- a/data_entry.xlsx
+++ b/data_entry.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,6 @@
           <t>XYZ</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>18</t>
@@ -496,6 +495,44 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>Registered</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>yashesh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pratap</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>INDIA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Registered</t>
         </is>
